--- a/result tables.xlsx
+++ b/result tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ioann\Documents\uni\Internship\Top k RSO\new repo\top-k-rso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1312A-2783-4704-86F6-6A6A3676A05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7238E-DE29-479E-A7DF-66DFB1104D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="65">
   <si>
     <t>Type</t>
   </si>
@@ -673,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY174"/>
+  <dimension ref="A1:AY168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomRight" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,19 +2750,19 @@
         <v>16</v>
       </c>
       <c r="H72" s="5">
-        <v>-0.13773600602325939</v>
+        <v>-0.13874689936806681</v>
       </c>
       <c r="I72" s="22">
-        <v>-0.16787373577838799</v>
+        <v>-0.16866111507136711</v>
       </c>
       <c r="J72" s="3">
-        <v>-0.17033043343110049</v>
+        <v>-0.1656896965185789</v>
       </c>
       <c r="K72" s="6">
-        <v>-0.1659286275159321</v>
+        <v>-0.13858437645455879</v>
       </c>
       <c r="L72" s="4">
-        <v>3.5144404094524587E-2</v>
+        <v>8.1820011230387816E-4</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2788,19 +2788,19 @@
         <v>16</v>
       </c>
       <c r="H73" s="10">
-        <v>-0.13773600602325939</v>
+        <v>-0.13874689936806681</v>
       </c>
       <c r="I73" s="23">
-        <v>-0.16787373577838799</v>
+        <v>-0.16866111507136711</v>
       </c>
       <c r="J73" s="8">
-        <v>-0.17033043343110049</v>
+        <v>-0.1656896965185789</v>
       </c>
       <c r="K73" s="11">
-        <v>-0.1659286275159321</v>
+        <v>-0.13858437645455879</v>
       </c>
       <c r="L73" s="9">
-        <v>3.5144404094524587E-2</v>
+        <v>8.1820011230387816E-4</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2826,19 +2826,19 @@
         <v>16</v>
       </c>
       <c r="H74" s="15">
-        <v>-7.5399383170012116E-2</v>
+        <v>-8.2347433538504822E-2</v>
       </c>
       <c r="I74" s="24">
-        <v>-9.7567386044950549E-2</v>
+        <v>-0.1035642134461211</v>
       </c>
       <c r="J74" s="13">
-        <v>-0.10057828343231109</v>
+        <v>-8.0134606434398362E-2</v>
       </c>
       <c r="K74" s="16">
-        <v>-8.1503289971222651E-2</v>
+        <v>-6.5885890705392774E-2</v>
       </c>
       <c r="L74" s="14">
-        <v>0.1853944177290516</v>
+        <v>0.1062801793967917</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -2864,19 +2864,19 @@
         <v>16</v>
       </c>
       <c r="H75" s="15">
-        <v>-0.1977256283189921</v>
+        <v>-0.1921371715529801</v>
       </c>
       <c r="I75" s="24">
-        <v>-0.22531782295284539</v>
+        <v>-0.226111921402602</v>
       </c>
       <c r="J75" s="13">
-        <v>-0.23382170334406591</v>
+        <v>-0.23242190482107219</v>
       </c>
       <c r="K75" s="16">
-        <v>-0.22331863455578849</v>
+        <v>-0.21570081372868549</v>
       </c>
       <c r="L75" s="14">
-        <v>-0.1081439083447024</v>
+        <v>-9.1391221051808746E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2902,19 +2902,19 @@
         <v>16</v>
       </c>
       <c r="H76" s="20">
-        <v>2.6361059672559979E-2</v>
+        <v>2.5023442416037781E-2</v>
       </c>
       <c r="I76" s="25">
-        <v>2.8668200032879069E-2</v>
+        <v>2.8247639096038109E-2</v>
       </c>
       <c r="J76" s="18">
-        <v>2.9191307555918991E-2</v>
+        <v>2.752543898328319E-2</v>
       </c>
       <c r="K76" s="21">
-        <v>2.9311947942836671E-2</v>
+        <v>2.7458545909703449E-2</v>
       </c>
       <c r="L76" s="19">
-        <v>5.0025087489207358E-2</v>
+        <v>4.3286967324946489E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2937,19 +2937,19 @@
         <v>16</v>
       </c>
       <c r="H78" s="5">
-        <v>-0.1271383227452898</v>
+        <v>-0.1262337439055109</v>
       </c>
       <c r="I78" s="22">
-        <v>-0.15636726030850909</v>
+        <v>-0.15654975824418199</v>
       </c>
       <c r="J78" s="3">
-        <v>-0.1599924424059212</v>
+        <v>-0.1610000017840808</v>
       </c>
       <c r="K78" s="6">
-        <v>-0.15344473189738919</v>
+        <v>-0.112036809692851</v>
       </c>
       <c r="L78" s="4">
-        <v>3.2342646321510779E-2</v>
+        <v>-1.4791622202151709E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -2975,19 +2975,19 @@
         <v>16</v>
       </c>
       <c r="H79" s="10">
-        <v>-0.1271383227452898</v>
+        <v>-0.1262337439055109</v>
       </c>
       <c r="I79" s="23">
-        <v>-0.15636726030850909</v>
+        <v>-0.15654975824418199</v>
       </c>
       <c r="J79" s="8">
-        <v>-0.1599924424059212</v>
+        <v>-0.1610000017840808</v>
       </c>
       <c r="K79" s="11">
-        <v>-0.15344473189738919</v>
+        <v>-0.112036809692851</v>
       </c>
       <c r="L79" s="9">
-        <v>3.2342646321510779E-2</v>
+        <v>-1.4791622202151709E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3013,19 +3013,19 @@
         <v>16</v>
       </c>
       <c r="H80" s="15">
-        <v>-5.2594356987514558E-2</v>
+        <v>-4.8147146611001827E-2</v>
       </c>
       <c r="I80" s="24">
-        <v>-7.7366994051099661E-2</v>
+        <v>-6.7128206397385135E-2</v>
       </c>
       <c r="J80" s="13">
-        <v>-9.0381203689513967E-2</v>
+        <v>-6.3035689686775448E-2</v>
       </c>
       <c r="K80" s="16">
-        <v>-8.3736218104243212E-2</v>
+        <v>-3.8613336439516817E-2</v>
       </c>
       <c r="L80" s="14">
-        <v>0.16256638002105839</v>
+        <v>0.15062999822588849</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3051,19 +3051,19 @@
         <v>16</v>
       </c>
       <c r="H81" s="15">
-        <v>-0.21407193505848279</v>
+        <v>-0.20945604919658101</v>
       </c>
       <c r="I81" s="24">
-        <v>-0.23086528008239179</v>
+        <v>-0.2275578597039544</v>
       </c>
       <c r="J81" s="13">
-        <v>-0.26256219736093628</v>
+        <v>-0.2365508935525279</v>
       </c>
       <c r="K81" s="16">
-        <v>-0.21671899236024381</v>
+        <v>-0.19966772305706551</v>
       </c>
       <c r="L81" s="14">
-        <v>-9.1401466409373994E-2</v>
+        <v>-0.12977023799007981</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3089,19 +3089,19 @@
         <v>16</v>
       </c>
       <c r="H82" s="20">
-        <v>3.5603804641145202E-2</v>
+        <v>3.4380975974180487E-2</v>
       </c>
       <c r="I82" s="25">
-        <v>3.5515786075675307E-2</v>
+        <v>3.416997140136295E-2</v>
       </c>
       <c r="J82" s="18">
-        <v>3.1888849341943533E-2</v>
+        <v>3.4481416265729072E-2</v>
       </c>
       <c r="K82" s="21">
-        <v>2.6881105399474411E-2</v>
+        <v>3.0549801054113559E-2</v>
       </c>
       <c r="L82" s="19">
-        <v>5.7873230843506769E-2</v>
+        <v>5.2541009428367973E-2</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3124,19 +3124,19 @@
         <v>16</v>
       </c>
       <c r="H84" s="5">
-        <v>-0.13351281154077091</v>
+        <v>-0.1300376040368324</v>
       </c>
       <c r="I84" s="22">
-        <v>-0.1562021785797218</v>
+        <v>-0.1547047724148424</v>
       </c>
       <c r="J84" s="3">
-        <v>-0.16655502898810309</v>
+        <v>-0.16407829533821991</v>
       </c>
       <c r="K84" s="6">
-        <v>-0.159858354976608</v>
+        <v>-0.1199574925363122</v>
       </c>
       <c r="L84" s="4">
-        <v>3.3499289285430493E-2</v>
+        <v>-9.9494338292398371E-3</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3162,19 +3162,19 @@
         <v>16</v>
       </c>
       <c r="H85" s="10">
-        <v>-0.13351281154077091</v>
+        <v>-0.1300376040368324</v>
       </c>
       <c r="I85" s="23">
-        <v>-0.1562021785797218</v>
+        <v>-0.1547047724148424</v>
       </c>
       <c r="J85" s="8">
-        <v>-0.16655502898810309</v>
+        <v>-0.16407829533821991</v>
       </c>
       <c r="K85" s="11">
-        <v>-0.159858354976608</v>
+        <v>-0.1199574925363122</v>
       </c>
       <c r="L85" s="9">
-        <v>3.3499289285430493E-2</v>
+        <v>-9.9494338292398371E-3</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3200,19 +3200,19 @@
         <v>16</v>
       </c>
       <c r="H86" s="15">
-        <v>-5.7446908241331578E-2</v>
+        <v>-3.0226896338265159E-2</v>
       </c>
       <c r="I86" s="24">
-        <v>-3.6361255129146258E-2</v>
+        <v>-5.0785859032640081E-2</v>
       </c>
       <c r="J86" s="13">
-        <v>-6.9623773160236199E-2</v>
+        <v>-8.5389834209637236E-2</v>
       </c>
       <c r="K86" s="16">
-        <v>-6.21345852607448E-2</v>
+        <v>-3.8155516814535072E-2</v>
       </c>
       <c r="L86" s="14">
-        <v>0.23491699290031159</v>
+        <v>0.16484647065569499</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3238,19 +3238,19 @@
         <v>16</v>
       </c>
       <c r="H87" s="15">
-        <v>-0.2296735167225589</v>
+        <v>-0.22992357765073029</v>
       </c>
       <c r="I87" s="24">
-        <v>-0.22516974347545021</v>
+        <v>-0.27066700253780418</v>
       </c>
       <c r="J87" s="13">
-        <v>-0.2498745404969861</v>
+        <v>-0.2477035209736029</v>
       </c>
       <c r="K87" s="16">
-        <v>-0.2417816917925891</v>
+        <v>-0.22280798325358281</v>
       </c>
       <c r="L87" s="14">
-        <v>-0.10292187216221479</v>
+        <v>-0.13809183082123569</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,19 +3276,19 @@
         <v>16</v>
       </c>
       <c r="H88" s="20">
-        <v>3.7638106978375593E-2</v>
+        <v>4.0565061264206302E-2</v>
       </c>
       <c r="I88" s="25">
-        <v>3.8337297624524543E-2</v>
+        <v>4.2393761178444553E-2</v>
       </c>
       <c r="J88" s="18">
-        <v>3.9035947264302678E-2</v>
+        <v>3.8498457192349608E-2</v>
       </c>
       <c r="K88" s="21">
-        <v>3.9309046870692282E-2</v>
+        <v>3.6919203544254049E-2</v>
       </c>
       <c r="L88" s="19">
-        <v>6.5219285667352217E-2</v>
+        <v>5.8597875881228459E-2</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3311,19 +3311,19 @@
         <v>16</v>
       </c>
       <c r="H90" s="5">
-        <v>-0.13705548461628811</v>
+        <v>-0.13402398635200949</v>
       </c>
       <c r="I90" s="22">
-        <v>-0.17125403387021351</v>
+        <v>-0.1633981740370114</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.16994248215336791</v>
+        <v>-0.1760509949732755</v>
       </c>
       <c r="K90" s="6">
-        <v>-0.1671149439374299</v>
+        <v>-0.1151997070082158</v>
       </c>
       <c r="L90" s="4">
-        <v>3.7845290851380491E-2</v>
+        <v>-1.904102449223451E-2</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3349,19 +3349,19 @@
         <v>16</v>
       </c>
       <c r="H91" s="10">
-        <v>-0.13705548461628811</v>
+        <v>-0.13402398635200949</v>
       </c>
       <c r="I91" s="23">
-        <v>-0.17125403387021351</v>
+        <v>-0.1633981740370114</v>
       </c>
       <c r="J91" s="8">
-        <v>-0.16994248215336791</v>
+        <v>-0.1760509949732755</v>
       </c>
       <c r="K91" s="11">
-        <v>-0.1671149439374299</v>
+        <v>-0.1151997070082158</v>
       </c>
       <c r="L91" s="9">
-        <v>3.7845290851380491E-2</v>
+        <v>-1.904102449223451E-2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3387,19 +3387,19 @@
         <v>16</v>
       </c>
       <c r="H92" s="15">
-        <v>-3.1352965097765022E-2</v>
+        <v>-1.6435030887793231E-2</v>
       </c>
       <c r="I92" s="24">
-        <v>-6.3161348440959317E-2</v>
+        <v>-6.3732725398466472E-2</v>
       </c>
       <c r="J92" s="13">
-        <v>-7.6988301349898758E-2</v>
+        <v>-8.6474751321621288E-2</v>
       </c>
       <c r="K92" s="16">
-        <v>-7.4233133069021587E-2</v>
+        <v>-3.9518783892509889E-3</v>
       </c>
       <c r="L92" s="14">
-        <v>0.21140718889806071</v>
+        <v>0.18257857971540051</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3425,19 +3425,19 @@
         <v>16</v>
       </c>
       <c r="H93" s="15">
-        <v>-0.26704186152829318</v>
+        <v>-0.24106602859617621</v>
       </c>
       <c r="I93" s="24">
-        <v>-0.25188036909119532</v>
+        <v>-0.26204083796465932</v>
       </c>
       <c r="J93" s="13">
-        <v>-0.25338827400342762</v>
+        <v>-0.29897646645014081</v>
       </c>
       <c r="K93" s="16">
-        <v>-0.25087982802719672</v>
+        <v>-0.21544476652954231</v>
       </c>
       <c r="L93" s="14">
-        <v>-0.11599872824555819</v>
+        <v>-0.16074468120040911</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3463,19 +3463,19 @@
         <v>16</v>
       </c>
       <c r="H94" s="20">
-        <v>4.1059172165886608E-2</v>
+        <v>4.5219391761728067E-2</v>
       </c>
       <c r="I94" s="25">
-        <v>3.9349013579267497E-2</v>
+        <v>3.6649052154143477E-2</v>
       </c>
       <c r="J94" s="18">
-        <v>4.0726603309931067E-2</v>
+        <v>3.9948541201252658E-2</v>
       </c>
       <c r="K94" s="21">
-        <v>3.8534593153540408E-2</v>
+        <v>4.3527921952902907E-2</v>
       </c>
       <c r="L94" s="19">
-        <v>6.2168876949287237E-2</v>
+        <v>6.8968491359822928E-2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,19 +3498,19 @@
         <v>16</v>
       </c>
       <c r="H96" s="5">
-        <v>-0.19668414994436489</v>
+        <v>-0.19199980724898491</v>
       </c>
       <c r="I96" s="22">
-        <v>-0.2250256670207425</v>
+        <v>-0.2237995930193451</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.23379787711656561</v>
+        <v>-0.23536224474167991</v>
       </c>
       <c r="K96" s="6">
-        <v>-0.2311293652515139</v>
+        <v>-0.18127157775877481</v>
       </c>
       <c r="L96" s="4">
-        <v>4.8676728120935632E-2</v>
+        <v>-8.8083321034020928E-3</v>
       </c>
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.25">
@@ -3536,19 +3536,19 @@
         <v>16</v>
       </c>
       <c r="H97" s="10">
-        <v>-0.19668414994436489</v>
+        <v>-0.19199980724898491</v>
       </c>
       <c r="I97" s="23">
-        <v>-0.2250256670207425</v>
+        <v>-0.2237995930193451</v>
       </c>
       <c r="J97" s="8">
-        <v>-0.23379787711656561</v>
+        <v>-0.23536224474167991</v>
       </c>
       <c r="K97" s="11">
-        <v>-0.2311293652515139</v>
+        <v>-0.18127157775877481</v>
       </c>
       <c r="L97" s="9">
-        <v>4.8676728120935632E-2</v>
+        <v>-8.8083321034020928E-3</v>
       </c>
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.25">
@@ -3574,19 +3574,19 @@
         <v>16</v>
       </c>
       <c r="H98" s="15">
-        <v>-9.2464248183448311E-2</v>
+        <v>-7.1097861070102575E-2</v>
       </c>
       <c r="I98" s="24">
-        <v>-6.3093748400805991E-2</v>
+        <v>-0.13455466834981561</v>
       </c>
       <c r="J98" s="13">
-        <v>-0.1024027520811677</v>
+        <v>-0.1170468371977722</v>
       </c>
       <c r="K98" s="16">
-        <v>-0.13036323786687029</v>
+        <v>-8.3106971473405969E-2</v>
       </c>
       <c r="L98" s="14">
-        <v>0.2684700204351011</v>
+        <v>0.37446699244359322</v>
       </c>
     </row>
     <row r="99" spans="1:51" x14ac:dyDescent="0.25">
@@ -3612,19 +3612,19 @@
         <v>16</v>
       </c>
       <c r="H99" s="15">
-        <v>-0.38105155471542251</v>
+        <v>-0.32887941819100619</v>
       </c>
       <c r="I99" s="24">
-        <v>-0.36645409757399272</v>
+        <v>-0.32610550744863859</v>
       </c>
       <c r="J99" s="13">
-        <v>-0.35662999458370609</v>
+        <v>-0.38910044659320447</v>
       </c>
       <c r="K99" s="16">
-        <v>-0.32341463285345978</v>
+        <v>-0.3241728291499742</v>
       </c>
       <c r="L99" s="14">
-        <v>-0.18952911906724751</v>
+        <v>-0.19942649836953741</v>
       </c>
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.25">
@@ -3650,19 +3650,19 @@
         <v>16</v>
       </c>
       <c r="H100" s="20">
-        <v>5.5923458851638817E-2</v>
+        <v>5.2457601352776002E-2</v>
       </c>
       <c r="I100" s="25">
-        <v>4.5714560450167037E-2</v>
+        <v>4.3222460720606259E-2</v>
       </c>
       <c r="J100" s="18">
-        <v>4.9014314721397452E-2</v>
+        <v>5.1487296421878527E-2</v>
       </c>
       <c r="K100" s="21">
-        <v>4.549153204221696E-2</v>
+        <v>5.2205197244934207E-2</v>
       </c>
       <c r="L100" s="19">
-        <v>9.8085338229413468E-2</v>
+        <v>9.4565988665250594E-2</v>
       </c>
     </row>
     <row r="104" spans="1:51" x14ac:dyDescent="0.25">
@@ -5010,19 +5010,19 @@
         <v>1</v>
       </c>
       <c r="H146" s="5">
-        <v>-0.1268635734003499</v>
+        <v>-0.1229623468663209</v>
       </c>
       <c r="I146" s="22">
-        <v>-0.16457560299613949</v>
+        <v>-0.1599366446306143</v>
       </c>
       <c r="J146" s="3">
-        <v>-0.15766859005779571</v>
+        <v>-0.1565820388039785</v>
       </c>
       <c r="K146" s="6">
-        <v>-0.16140644534693219</v>
+        <v>-0.122093278965562</v>
       </c>
       <c r="L146" s="4">
-        <v>4.2390853359918879E-2</v>
+        <v>3.79935258902612E-4</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -5048,19 +5048,19 @@
         <v>1</v>
       </c>
       <c r="H147" s="10">
-        <v>-0.1268635734003499</v>
+        <v>-0.1229623468663209</v>
       </c>
       <c r="I147" s="23">
-        <v>-0.16457560299613949</v>
+        <v>-0.1599366446306143</v>
       </c>
       <c r="J147" s="8">
-        <v>-0.15766859005779571</v>
+        <v>-0.1565820388039785</v>
       </c>
       <c r="K147" s="11">
-        <v>-0.16140644534693219</v>
+        <v>-0.122093278965562</v>
       </c>
       <c r="L147" s="9">
-        <v>4.2390853359918879E-2</v>
+        <v>3.79935258902612E-4</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -5086,19 +5086,19 @@
         <v>1</v>
       </c>
       <c r="H148" s="15">
-        <v>-5.2083785689182843E-2</v>
+        <v>-1.91501997071689E-2</v>
       </c>
       <c r="I148" s="24">
-        <v>-6.541551380734105E-2</v>
+        <v>-8.4820368714974739E-2</v>
       </c>
       <c r="J148" s="13">
-        <v>-8.4487153750646943E-2</v>
+        <v>-8.6783123073615853E-2</v>
       </c>
       <c r="K148" s="16">
-        <v>-9.619011693322585E-2</v>
+        <v>-4.3781958681983472E-2</v>
       </c>
       <c r="L148" s="14">
-        <v>0.24759438937899861</v>
+        <v>0.19342410502810761</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -5124,19 +5124,19 @@
         <v>1</v>
       </c>
       <c r="H149" s="15">
-        <v>-0.19073907586405189</v>
+        <v>-0.202643932220749</v>
       </c>
       <c r="I149" s="24">
-        <v>-0.2293678628005813</v>
+        <v>-0.24266787931373671</v>
       </c>
       <c r="J149" s="13">
-        <v>-0.23981618607373131</v>
+        <v>-0.24140590788497721</v>
       </c>
       <c r="K149" s="16">
-        <v>-0.25984636067882078</v>
+        <v>-0.23420896870804589</v>
       </c>
       <c r="L149" s="14">
-        <v>-6.683204125629294E-2</v>
+        <v>-0.1118836679820515</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -5162,19 +5162,19 @@
         <v>1</v>
       </c>
       <c r="H150" s="20">
-        <v>3.1138028077583119E-2</v>
+        <v>3.6237219933111187E-2</v>
       </c>
       <c r="I150" s="25">
-        <v>3.5441254368515508E-2</v>
+        <v>3.3367562311699357E-2</v>
       </c>
       <c r="J150" s="18">
-        <v>3.3445130874607938E-2</v>
+        <v>3.1974869221982727E-2</v>
       </c>
       <c r="K150" s="21">
-        <v>2.88121499903808E-2</v>
+        <v>3.1009566231054369E-2</v>
       </c>
       <c r="L150" s="19">
-        <v>5.1528450871785071E-2</v>
+        <v>5.7164793818242708E-2</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -5197,19 +5197,19 @@
         <v>4</v>
       </c>
       <c r="H152" s="5">
-        <v>-0.13077459251284421</v>
+        <v>-0.12537612107545831</v>
       </c>
       <c r="I152" s="22">
-        <v>-0.15246732693779699</v>
+        <v>-0.15772793739151789</v>
       </c>
       <c r="J152" s="3">
-        <v>-0.16238581589300069</v>
+        <v>-0.15828038516013751</v>
       </c>
       <c r="K152" s="6">
-        <v>-0.15400046893476671</v>
+        <v>-0.1164861391486708</v>
       </c>
       <c r="L152" s="4">
-        <v>2.8340161665305619E-2</v>
+        <v>-8.7075555667566751E-3</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -5235,19 +5235,19 @@
         <v>4</v>
       </c>
       <c r="H153" s="10">
-        <v>-0.13077459251284421</v>
+        <v>-0.12537612107545831</v>
       </c>
       <c r="I153" s="23">
-        <v>-0.15246732693779699</v>
+        <v>-0.15772793739151789</v>
       </c>
       <c r="J153" s="8">
-        <v>-0.16238581589300069</v>
+        <v>-0.15828038516013751</v>
       </c>
       <c r="K153" s="11">
-        <v>-0.15400046893476671</v>
+        <v>-0.1164861391486708</v>
       </c>
       <c r="L153" s="9">
-        <v>2.8340161665305619E-2</v>
+        <v>-8.7075555667566751E-3</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -5273,19 +5273,19 @@
         <v>4</v>
       </c>
       <c r="H154" s="15">
-        <v>-5.663590739427362E-2</v>
+        <v>-5.2509577324821442E-2</v>
       </c>
       <c r="I154" s="24">
-        <v>-5.6881172959873383E-2</v>
+        <v>-7.7583882110731875E-2</v>
       </c>
       <c r="J154" s="13">
-        <v>-5.5358088734257467E-2</v>
+        <v>-6.8636034665932669E-2</v>
       </c>
       <c r="K154" s="16">
-        <v>-6.907438123107365E-2</v>
+        <v>-4.8806516260026953E-2</v>
       </c>
       <c r="L154" s="14">
-        <v>0.18731230461629511</v>
+        <v>0.14523998569916621</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -5311,19 +5311,19 @@
         <v>4</v>
       </c>
       <c r="H155" s="15">
-        <v>-0.20456890948721629</v>
+        <v>-0.18927711915927969</v>
       </c>
       <c r="I155" s="24">
-        <v>-0.2370754803390191</v>
+        <v>-0.25982483481849511</v>
       </c>
       <c r="J155" s="13">
-        <v>-0.2468501326271661</v>
+        <v>-0.23082347182220561</v>
       </c>
       <c r="K155" s="16">
-        <v>-0.2195596360731765</v>
+        <v>-0.21040613524766499</v>
       </c>
       <c r="L155" s="14">
-        <v>-6.7059968494030828E-2</v>
+        <v>-0.11780163134974971</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5349,19 +5349,19 @@
         <v>4</v>
       </c>
       <c r="H156" s="20">
-        <v>3.5913829911308807E-2</v>
+        <v>3.0090114761522829E-2</v>
       </c>
       <c r="I156" s="25">
-        <v>3.5228759215990668E-2</v>
+        <v>3.400785009719879E-2</v>
       </c>
       <c r="J156" s="18">
-        <v>3.3472552873545662E-2</v>
+        <v>3.3083860705873103E-2</v>
       </c>
       <c r="K156" s="21">
-        <v>2.5391206344137711E-2</v>
+        <v>3.3012904663651331E-2</v>
       </c>
       <c r="L156" s="19">
-        <v>5.2149280052490227E-2</v>
+        <v>5.0131054855328983E-2</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -5384,19 +5384,19 @@
         <v>16</v>
       </c>
       <c r="H158" s="5">
-        <v>-0.12723166683635589</v>
+        <v>-0.12604045337949371</v>
       </c>
       <c r="I158" s="22">
-        <v>-0.16032003396085609</v>
+        <v>-0.15288069972374291</v>
       </c>
       <c r="J158" s="3">
-        <v>-0.15821709101846301</v>
+        <v>-0.16055026219616519</v>
       </c>
       <c r="K158" s="6">
-        <v>-0.1538250671362611</v>
+        <v>-0.1220137616190142</v>
       </c>
       <c r="L158" s="4">
-        <v>3.2610935523055121E-2</v>
+        <v>-3.185782520498801E-3</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -5422,19 +5422,19 @@
         <v>16</v>
       </c>
       <c r="H159" s="10">
-        <v>-0.12723166683635589</v>
+        <v>-0.12604045337949371</v>
       </c>
       <c r="I159" s="23">
-        <v>-0.16032003396085609</v>
+        <v>-0.15288069972374291</v>
       </c>
       <c r="J159" s="8">
-        <v>-0.15821709101846301</v>
+        <v>-0.16055026219616519</v>
       </c>
       <c r="K159" s="11">
-        <v>-0.1538250671362611</v>
+        <v>-0.1220137616190142</v>
       </c>
       <c r="L159" s="9">
-        <v>3.2610935523055121E-2</v>
+        <v>-3.185782520498801E-3</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5460,19 +5460,19 @@
         <v>16</v>
       </c>
       <c r="H160" s="15">
-        <v>-5.1222313686496983E-2</v>
+        <v>-5.8545918024646579E-2</v>
       </c>
       <c r="I160" s="24">
-        <v>-7.8087760795015851E-2</v>
+        <v>-7.9121668421496399E-2</v>
       </c>
       <c r="J160" s="13">
-        <v>-7.0572448411018368E-2</v>
+        <v>-8.737571547077512E-2</v>
       </c>
       <c r="K160" s="16">
-        <v>-8.9377163127152437E-2</v>
+        <v>-4.6593838802075682E-2</v>
       </c>
       <c r="L160" s="14">
-        <v>0.2001887103971306</v>
+        <v>0.12674874874023431</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -5498,19 +5498,19 @@
         <v>16</v>
       </c>
       <c r="H161" s="15">
-        <v>-0.2399640843126179</v>
+        <v>-0.22242438304152051</v>
       </c>
       <c r="I161" s="24">
-        <v>-0.26384971403664692</v>
+        <v>-0.22074813144008509</v>
       </c>
       <c r="J161" s="13">
-        <v>-0.2213347320828295</v>
+        <v>-0.23033840710650461</v>
       </c>
       <c r="K161" s="16">
-        <v>-0.23487531135442929</v>
+        <v>-0.1852893178239767</v>
       </c>
       <c r="L161" s="14">
-        <v>-6.5101083441389193E-2</v>
+        <v>-0.14233815119524379</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -5536,19 +5536,19 @@
         <v>16</v>
       </c>
       <c r="H162" s="20">
-        <v>3.5657029112431793E-2</v>
+        <v>3.283320546536115E-2</v>
       </c>
       <c r="I162" s="25">
-        <v>3.573930325075176E-2</v>
+        <v>3.0753289957497609E-2</v>
       </c>
       <c r="J162" s="18">
-        <v>3.038012349613041E-2</v>
+        <v>3.2550059033004952E-2</v>
       </c>
       <c r="K162" s="21">
-        <v>3.3030179334115367E-2</v>
+        <v>3.2050553526805782E-2</v>
       </c>
       <c r="L162" s="19">
-        <v>5.1630747799321933E-2</v>
+        <v>5.4090710266612337E-2</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -5571,19 +5571,19 @@
         <v>32</v>
       </c>
       <c r="H164" s="5">
-        <v>-0.12745836123728671</v>
+        <v>-0.1245640423843062</v>
       </c>
       <c r="I164" s="22">
-        <v>-0.1599951082007133</v>
+        <v>-0.15861022669495159</v>
       </c>
       <c r="J164" s="3">
-        <v>-0.15551755701615899</v>
+        <v>-0.15560853088622731</v>
       </c>
       <c r="K164" s="6">
-        <v>-0.15343866906118539</v>
+        <v>-0.1203197680048167</v>
       </c>
       <c r="L164" s="4">
-        <v>3.2272428468446017E-2</v>
+        <v>-3.4543778830034119E-3</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -5609,19 +5609,19 @@
         <v>32</v>
       </c>
       <c r="H165" s="10">
-        <v>-0.12745836123728671</v>
+        <v>-0.1245640423843062</v>
       </c>
       <c r="I165" s="23">
-        <v>-0.1599951082007133</v>
+        <v>-0.15861022669495159</v>
       </c>
       <c r="J165" s="8">
-        <v>-0.15551755701615899</v>
+        <v>-0.15560853088622731</v>
       </c>
       <c r="K165" s="11">
-        <v>-0.15343866906118539</v>
+        <v>-0.1203197680048167</v>
       </c>
       <c r="L165" s="9">
-        <v>3.2272428468446017E-2</v>
+        <v>-3.4543778830034119E-3</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -5647,19 +5647,19 @@
         <v>32</v>
       </c>
       <c r="H166" s="15">
-        <v>-5.7225235474620627E-2</v>
+        <v>-5.4112794483318308E-2</v>
       </c>
       <c r="I166" s="24">
-        <v>-0.103170503115753</v>
+        <v>-8.269841381819186E-2</v>
       </c>
       <c r="J166" s="13">
-        <v>-7.7388955872250351E-2</v>
+        <v>-6.7204739234306449E-2</v>
       </c>
       <c r="K166" s="16">
-        <v>-8.5315629463650469E-2</v>
+        <v>-4.1424976160932443E-2</v>
       </c>
       <c r="L166" s="14">
-        <v>0.15546204516288839</v>
+        <v>0.1733407313517463</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -5685,19 +5685,19 @@
         <v>32</v>
       </c>
       <c r="H167" s="15">
-        <v>-0.21512101260151209</v>
+        <v>-0.19371577752706201</v>
       </c>
       <c r="I167" s="24">
-        <v>-0.22075448584316329</v>
+        <v>-0.22070544233135189</v>
       </c>
       <c r="J167" s="13">
-        <v>-0.22225405879469029</v>
+        <v>-0.2243879839961819</v>
       </c>
       <c r="K167" s="16">
-        <v>-0.22801768910032769</v>
+        <v>-0.2201175219808269</v>
       </c>
       <c r="L167" s="14">
-        <v>-0.1173306177235998</v>
+        <v>-0.1184552427069767</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -5723,206 +5723,19 @@
         <v>32</v>
       </c>
       <c r="H168" s="20">
-        <v>3.3740489144437197E-2</v>
+        <v>3.3588222669949437E-2</v>
       </c>
       <c r="I168" s="25">
-        <v>2.663844796569052E-2</v>
+        <v>3.2070171446056013E-2</v>
       </c>
       <c r="J168" s="18">
-        <v>3.091044796465791E-2</v>
+        <v>2.970268169144602E-2</v>
       </c>
       <c r="K168" s="21">
-        <v>3.4781063652647853E-2</v>
+        <v>3.3384196682666199E-2</v>
       </c>
       <c r="L168" s="19">
-        <v>5.5564766717330821E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B170" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C170" s="2">
-        <v>20</v>
-      </c>
-      <c r="D170" s="2">
-        <v>25</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G170" s="2">
-        <v>64</v>
-      </c>
-      <c r="H170" s="5">
-        <v>-0.1246008952938901</v>
-      </c>
-      <c r="I170" s="22">
-        <v>-0.15586534694135309</v>
-      </c>
-      <c r="J170" s="3">
-        <v>-0.1611077532448402</v>
-      </c>
-      <c r="K170" s="6">
-        <v>-0.1481655019519629</v>
-      </c>
-      <c r="L170" s="4">
-        <v>2.8823267790151281E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C171" s="7">
-        <v>20</v>
-      </c>
-      <c r="D171" s="7">
-        <v>25</v>
-      </c>
-      <c r="E171" s="7">
-        <v>1</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G171" s="7">
-        <v>64</v>
-      </c>
-      <c r="H171" s="10">
-        <v>-0.1246008952938901</v>
-      </c>
-      <c r="I171" s="23">
-        <v>-0.15586534694135309</v>
-      </c>
-      <c r="J171" s="8">
-        <v>-0.1611077532448402</v>
-      </c>
-      <c r="K171" s="11">
-        <v>-0.1481655019519629</v>
-      </c>
-      <c r="L171" s="9">
-        <v>2.8823267790151281E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B172" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C172" s="12">
-        <v>20</v>
-      </c>
-      <c r="D172" s="12">
-        <v>25</v>
-      </c>
-      <c r="E172" s="12">
-        <v>1</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G172" s="12">
-        <v>64</v>
-      </c>
-      <c r="H172" s="15">
-        <v>-4.4604324871557251E-2</v>
-      </c>
-      <c r="I172" s="24">
-        <v>-8.6594848862866711E-2</v>
-      </c>
-      <c r="J172" s="13">
-        <v>-9.7408385259774952E-2</v>
-      </c>
-      <c r="K172" s="16">
-        <v>-8.5641054734049316E-2</v>
-      </c>
-      <c r="L172" s="14">
-        <v>0.2005039235864623</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B173" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C173" s="12">
-        <v>20</v>
-      </c>
-      <c r="D173" s="12">
-        <v>25</v>
-      </c>
-      <c r="E173" s="12">
-        <v>1</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G173" s="12">
-        <v>64</v>
-      </c>
-      <c r="H173" s="15">
-        <v>-0.222842069310415</v>
-      </c>
-      <c r="I173" s="24">
-        <v>-0.24675197973667831</v>
-      </c>
-      <c r="J173" s="13">
-        <v>-0.24940216922968869</v>
-      </c>
-      <c r="K173" s="16">
-        <v>-0.2111286255300992</v>
-      </c>
-      <c r="L173" s="14">
-        <v>-0.1044969915385551</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B174" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C174" s="17">
-        <v>20</v>
-      </c>
-      <c r="D174" s="17">
-        <v>25</v>
-      </c>
-      <c r="E174" s="17">
-        <v>1</v>
-      </c>
-      <c r="F174" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G174" s="17">
-        <v>64</v>
-      </c>
-      <c r="H174" s="20">
-        <v>3.419059751331683E-2</v>
-      </c>
-      <c r="I174" s="25">
-        <v>3.046074292153152E-2</v>
-      </c>
-      <c r="J174" s="18">
-        <v>2.9473487877698198E-2</v>
-      </c>
-      <c r="K174" s="21">
-        <v>2.8881260163832429E-2</v>
-      </c>
-      <c r="L174" s="19">
-        <v>5.3325533913719449E-2</v>
+        <v>5.298890494786701E-2</v>
       </c>
     </row>
   </sheetData>
